--- a/21stJan/Normalization.xlsx
+++ b/21stJan/Normalization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="106">
   <si>
     <t>Pcode</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Gurgaon</t>
-  </si>
-  <si>
-    <t>Deltion of a single record wile result in loss of information</t>
   </si>
   <si>
     <t>Updating some records might not happen</t>
@@ -357,12 +354,24 @@
   <si>
     <t>Department</t>
   </si>
+  <si>
+    <t>Every supplier is located at some city &amp; city has some pincode / status</t>
+  </si>
+  <si>
+    <t>City (Fkey)</t>
+  </si>
+  <si>
+    <t>City (pKey)</t>
+  </si>
+  <si>
+    <t>Deletion of a single record wil not result in loss of information</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +398,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -564,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,6 +617,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,22 +1137,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="19" max="19" width="30.77734375" customWidth="1"/>
     <col min="32" max="32" width="30.77734375" customWidth="1"/>
+    <col min="38" max="38" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="J2" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="V2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
@@ -1143,15 +1166,15 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="V4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
@@ -1165,7 +1188,7 @@
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -1184,7 +1207,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>1</v>
@@ -1196,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>21</v>
@@ -1205,13 +1228,13 @@
         <v>20</v>
       </c>
       <c r="AI5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AJ5" s="7" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="AL5" s="13" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="AM5" s="7" t="s">
         <v>20</v>
@@ -1314,7 +1337,7 @@
         <v>35</v>
       </c>
       <c r="Q7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>4</v>
@@ -1338,7 +1361,7 @@
         <v>35</v>
       </c>
       <c r="AE7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>7</v>
@@ -1382,7 +1405,7 @@
         <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>4</v>
@@ -1406,7 +1429,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>10</v>
@@ -1535,7 +1558,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1556,10 +1579,10 @@
         <v>22</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>12</v>
@@ -1570,41 +1593,34 @@
       <c r="X12" s="1">
         <v>12</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>47</v>
+      <c r="Z12" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="AL12" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="9">
-        <v>13</v>
-      </c>
-      <c r="M13" s="9">
-        <v>30</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="M14" s="8">
@@ -1614,7 +1630,7 @@
         <v>39</v>
       </c>
       <c r="AH14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI14" s="14" t="s">
         <v>34</v>
@@ -1647,20 +1663,20 @@
       <c r="L15" t="s">
         <v>26</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="AH15" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI15" s="14" t="s">
         <v>35</v>
       </c>
       <c r="AJ15" s="14" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -1682,13 +1698,13 @@
         <v>37</v>
       </c>
       <c r="AH16" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="AJ16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -1735,7 +1751,7 @@
         <v>89</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
@@ -1813,7 +1829,7 @@
     </row>
     <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="8:19" x14ac:dyDescent="0.3">
@@ -1829,7 +1845,7 @@
         <v>21</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="8:19" x14ac:dyDescent="0.3">
@@ -1839,20 +1855,20 @@
     </row>
     <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="L40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="8:19" x14ac:dyDescent="0.3">
       <c r="J44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="8:19" x14ac:dyDescent="0.3">
       <c r="J46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>21</v>
@@ -1869,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>21</v>
@@ -2009,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>7</v>
@@ -2081,57 +2097,61 @@
         <v>12</v>
       </c>
     </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+    </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
     </row>
     <row r="72" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="E73" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="F73" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="G73" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G73" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H73" s="18" t="s">
+      <c r="I73" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I73" s="19" t="s">
+      <c r="J73" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="K73" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="K73" s="29" t="s">
+      <c r="L73" s="32" t="s">
         <v>81</v>
-      </c>
-      <c r="L73" s="29" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="20">
         <v>1</v>
@@ -2145,22 +2165,22 @@
       <c r="J74" s="29">
         <v>1</v>
       </c>
-      <c r="K74" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="L74" s="29" t="s">
-        <v>87</v>
+      <c r="K74" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L74" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="N74" t="s">
+        <v>89</v>
+      </c>
+      <c r="P74" t="s">
         <v>90</v>
-      </c>
-      <c r="P74" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="20">
         <v>2</v>
@@ -2174,22 +2194,22 @@
       <c r="J75" s="29">
         <v>1</v>
       </c>
-      <c r="K75" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="L75" s="29" t="s">
-        <v>87</v>
+      <c r="K75" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L75" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="N75" t="s">
         <v>29</v>
       </c>
       <c r="P75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="20">
         <v>3</v>
@@ -2203,17 +2223,17 @@
       <c r="J76" s="29">
         <v>2</v>
       </c>
-      <c r="K76" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="L76" s="29" t="s">
-        <v>88</v>
+      <c r="K76" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="L76" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="N76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
@@ -2229,11 +2249,11 @@
       <c r="J77" s="29">
         <v>2</v>
       </c>
-      <c r="K77" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L77" s="29" t="s">
-        <v>88</v>
+      <c r="K77" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="L77" s="32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
@@ -2249,14 +2269,14 @@
       <c r="J78" s="29">
         <v>3</v>
       </c>
-      <c r="K78" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="L78" s="29" t="s">
-        <v>89</v>
+      <c r="K78" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L78" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="O78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
@@ -2272,11 +2292,11 @@
       <c r="J79" s="29">
         <v>1</v>
       </c>
-      <c r="K79" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="L79" s="29" t="s">
-        <v>87</v>
+      <c r="K79" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L79" s="32" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
@@ -2292,20 +2312,20 @@
       <c r="J80" s="29">
         <v>1</v>
       </c>
-      <c r="K80" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="L80" s="29" t="s">
-        <v>87</v>
+      <c r="K80" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L80" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="N80" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="O80" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="O80" s="26" t="s">
+      <c r="P80" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="P80" s="26" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="81" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2321,83 +2341,87 @@
       <c r="J81" s="29">
         <v>1</v>
       </c>
-      <c r="K81" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="L81" s="29" t="s">
-        <v>87</v>
+      <c r="K81" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L81" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="N81" s="26">
         <v>1</v>
       </c>
       <c r="O81" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P81" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="3:16" x14ac:dyDescent="0.3">
       <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
       <c r="N82" s="26"/>
       <c r="O82" s="26"/>
       <c r="P82" s="26"/>
     </row>
     <row r="83" spans="3:16" x14ac:dyDescent="0.3">
       <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
       <c r="N83" s="26">
         <v>2</v>
       </c>
       <c r="O83" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P83" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="3:16" x14ac:dyDescent="0.3">
       <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
       <c r="N84" s="26"/>
       <c r="O84" s="26"/>
       <c r="P84" s="26"/>
     </row>
     <row r="85" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
       <c r="N85" s="26">
         <v>3</v>
       </c>
       <c r="O85" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P85" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D86" s="26" t="s">
-        <v>74</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
       <c r="N86" s="26"/>
       <c r="O86" s="26"/>
       <c r="P86" s="26"/>
     </row>
     <row r="87" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I87" t="s">
+        <v>98</v>
+      </c>
+      <c r="K87" t="s">
         <v>99</v>
-      </c>
-      <c r="K87" t="s">
-        <v>100</v>
       </c>
       <c r="N87" s="26"/>
       <c r="O87" s="26"/>
@@ -2420,29 +2444,29 @@
   <dimension ref="C5:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>68</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -2450,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>89</v>
@@ -2470,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>90</v>
@@ -2490,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>78</v>
@@ -2507,7 +2531,7 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
